--- a/Usabilidad Jakob Nielsen.xlsx
+++ b/Usabilidad Jakob Nielsen.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\HCI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\HCI\Trabajo Usabilidad\Trabajo-HCI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8443BD0C-0EE1-4F42-95C0-A7D61363D742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAE6B4E-5DCB-4B6A-970A-CB37EC12BDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,6 +41,95 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={47D10349-8406-4454-A9DD-33F4A2A410C7}</author>
+    <author>tc={2C3FCF95-654D-42E8-ACC0-85AE12C5EF52}</author>
+    <author>tc={1EDE50AC-7B2E-43DC-AD1C-65AE82A78FEE}</author>
+    <author>tc={C19472A1-9B2F-4B09-B971-74710C633F30}</author>
+  </authors>
+  <commentList>
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{47D10349-8406-4454-A9DD-33F4A2A410C7}">
+      <text>
+        <t>[Comentario encadenado]
+Tu versión de Excel te permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    H5 Los usuarios no tienen control sobre los campos erróneos</t>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="1" shapeId="0" xr:uid="{2C3FCF95-654D-42E8-ACC0-85AE12C5EF52}">
+      <text>
+        <t xml:space="preserve">[Comentario encadenado]
+Tu versión de Excel te permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    H3 Los usuarios no tienen control sobre el tamaño de la letra, lo que limita su capacidad de personalizar la experiencia de lectura. 
+H7 El tiempo y el esfuerzo que se invierten en ajustar el tamaño de la letra manualmente pueden afectar la eficiencia y la productividad del usuario. </t>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="2" shapeId="0" xr:uid="{1EDE50AC-7B2E-43DC-AD1C-65AE82A78FEE}">
+      <text>
+        <t xml:space="preserve">[Comentario encadenado]
+Tu versión de Excel te permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    H3  Los usuarios pueden sentirse abrumados por la información adicional y perder el control sobre su navegación. 
+H7 La información innecesaria puede ralentizar a los usuarios y dificultarles encontrar lo que buscan. </t>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="3" shapeId="0" xr:uid="{C19472A1-9B2F-4B09-B971-74710C633F30}">
+      <text>
+        <t xml:space="preserve">[Comentario encadenado]
+Tu versión de Excel te permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    H2 Los usuarios esperan encontrar textos escritos correctamente, ya que esto es fundamental para la comprensión y la fluidez de la lectura.
+H7 Los errores ortográficos obligan al usuario a invertir tiempo y esfuerzo en descifrar el significado del texto, lo que reduce su eficiencia y productividad.
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={72ABD538-511B-41BE-91D6-8B577CAD55AA}</author>
+    <author>tc={3AC3AE68-EECC-47F9-A996-B12A3C3E7789}</author>
+    <author>tc={962FACF0-2F72-4FF2-B909-25D760BE8EF0}</author>
+  </authors>
+  <commentList>
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{72ABD538-511B-41BE-91D6-8B577CAD55AA}">
+      <text>
+        <t xml:space="preserve">[Comentario encadenado]
+Tu versión de Excel te permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    H3 Los usuarios no tienen control sobre el tamaño de la letra, lo que limita su capacidad de personalizar la experiencia de lectura. 
+H7 El tiempo y el esfuerzo que se invierten en ajustar el tamaño de la letra manualmente pueden afectar la eficiencia y la productividad del usuario. </t>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="1" shapeId="0" xr:uid="{3AC3AE68-EECC-47F9-A996-B12A3C3E7789}">
+      <text>
+        <t xml:space="preserve">[Comentario encadenado]
+Tu versión de Excel te permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    H3  Los usuarios pueden sentirse abrumados por la información adicional y perder el control sobre su navegación. 
+H7 La información innecesaria puede ralentizar a los usuarios y dificultarles encontrar lo que buscan. </t>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="2" shapeId="0" xr:uid="{962FACF0-2F72-4FF2-B909-25D760BE8EF0}">
+      <text>
+        <t xml:space="preserve">[Comentario encadenado]
+Tu versión de Excel te permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    H2 Los usuarios esperan encontrar textos escritos correctamente, ya que esto es fundamental para la comprensión y la fluidez de la lectura.
+H7 Los errores ortográficos obligan al usuario a invertir tiempo y esfuerzo en descifrar el significado del texto, lo que reduce su eficiencia y productividad.
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{537C8E56-F14A-4F77-B9DF-E567F905020B}" keepAlive="1" name="Query - Tabla1" description="Connection to the 'Tabla1' query in the workbook." type="5" refreshedVersion="0" background="1">
@@ -54,7 +143,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="23">
+  <futureMetadata name="XLRICHVALUE" count="24">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -216,8 +305,15 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="23"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="23">
+  <valueMetadata count="24">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -287,12 +383,15 @@
     <bk>
       <rc t="1" v="22"/>
     </bk>
+    <bk>
+      <rc t="1" v="23"/>
+    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="69">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -309,9 +408,6 @@
     <t>P2</t>
   </si>
   <si>
-    <t>H7</t>
-  </si>
-  <si>
     <t>P3</t>
   </si>
   <si>
@@ -435,9 +531,6 @@
     <t>Información innecesaria. </t>
   </si>
   <si>
-    <t>H8</t>
-  </si>
-  <si>
     <t>Diferentes formatos</t>
   </si>
   <si>
@@ -469,12 +562,30 @@
   </si>
   <si>
     <t>Aumento del tamaño de letra</t>
+  </si>
+  <si>
+    <t>‣ H4  ‣ H8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuando el ratón se posa sobre "Normativa sobre delitos informáticos", despliega un menú prescindible y poco relevante al cometido final de la página. </t>
+  </si>
+  <si>
+    <t>EVIDENCIAS</t>
+  </si>
+  <si>
+    <t>ID Problema</t>
+  </si>
+  <si>
+    <t>Indicador</t>
+  </si>
+  <si>
+    <t>PROBLEMA 6</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
+        <sz val="16"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
@@ -484,7 +595,53 @@
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H3  ‣ H7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="25"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">‣ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="25"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H3  ‣ H7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="25"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">‣ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="25"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -494,29 +651,40 @@
     </r>
   </si>
   <si>
-    <t>‣ H4  ‣ H8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuando el ratón se posa sobre "Normativa sobre delitos informáticos", despliega un menú prescindible y poco relevante al cometido final de la página. </t>
-  </si>
-  <si>
-    <t>EVIDENCIAS</t>
-  </si>
-  <si>
-    <t>ID Problema</t>
-  </si>
-  <si>
-    <t>Indicador</t>
-  </si>
-  <si>
-    <t>PROBLEMA 6</t>
+    <t>‣ H3 ‣  H7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="25"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">‣ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="25"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H2  ‣ H7</t>
+    </r>
+  </si>
+  <si>
+    <t>Diferentes formatos de letra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,13 +699,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -631,6 +792,42 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="25"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="25"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -664,7 +861,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1132,35 +1329,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1191,106 +1364,176 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1301,6 +1544,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1310,131 +1562,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2422,6 +2597,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="felipe arias" id="{F923546A-F332-42C0-9D38-81AACCB66449}" userId="b6d4bd13e0180078" providerId="Windows Live"/>
+</personList>
+</file>
+
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -2463,7 +2644,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="23">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="24">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -2556,6 +2737,10 @@
     <v>22</v>
     <v>5</v>
   </rv>
+  <rv s="0">
+    <v>23</v>
+    <v>5</v>
+  </rv>
 </rvData>
 </file>
 
@@ -2593,6 +2778,7 @@
   <rel r:id="rId21"/>
   <rel r:id="rId22"/>
   <rel r:id="rId23"/>
+  <rel r:id="rId24"/>
 </richValueRels>
 </file>
 
@@ -2857,6 +3043,45 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E5" dT="2024-04-19T03:33:21.06" personId="{F923546A-F332-42C0-9D38-81AACCB66449}" id="{47D10349-8406-4454-A9DD-33F4A2A410C7}">
+    <text>H5 Los usuarios no tienen control sobre los campos erróneos</text>
+  </threadedComment>
+  <threadedComment ref="E7" dT="2024-04-19T03:24:53.41" personId="{F923546A-F332-42C0-9D38-81AACCB66449}" id="{2C3FCF95-654D-42E8-ACC0-85AE12C5EF52}">
+    <text xml:space="preserve">H3 Los usuarios no tienen control sobre el tamaño de la letra, lo que limita su capacidad de personalizar la experiencia de lectura. 
+H7 El tiempo y el esfuerzo que se invierten en ajustar el tamaño de la letra manualmente pueden afectar la eficiencia y la productividad del usuario. </text>
+  </threadedComment>
+  <threadedComment ref="E9" dT="2024-04-19T03:25:55.28" personId="{F923546A-F332-42C0-9D38-81AACCB66449}" id="{1EDE50AC-7B2E-43DC-AD1C-65AE82A78FEE}">
+    <text xml:space="preserve">H3  Los usuarios pueden sentirse abrumados por la información adicional y perder el control sobre su navegación. 
+H7 La información innecesaria puede ralentizar a los usuarios y dificultarles encontrar lo que buscan. </text>
+  </threadedComment>
+  <threadedComment ref="E11" dT="2024-04-19T03:31:04.46" personId="{F923546A-F332-42C0-9D38-81AACCB66449}" id="{C19472A1-9B2F-4B09-B971-74710C633F30}">
+    <text xml:space="preserve">H2 Los usuarios esperan encontrar textos escritos correctamente, ya que esto es fundamental para la comprensión y la fluidez de la lectura.
+H7 Los errores ortográficos obligan al usuario a invertir tiempo y esfuerzo en descifrar el significado del texto, lo que reduce su eficiencia y productividad.
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E7" dT="2024-04-19T03:24:53.41" personId="{F923546A-F332-42C0-9D38-81AACCB66449}" id="{72ABD538-511B-41BE-91D6-8B577CAD55AA}">
+    <text xml:space="preserve">H3 Los usuarios no tienen control sobre el tamaño de la letra, lo que limita su capacidad de personalizar la experiencia de lectura. 
+H7 El tiempo y el esfuerzo que se invierten en ajustar el tamaño de la letra manualmente pueden afectar la eficiencia y la productividad del usuario. </text>
+  </threadedComment>
+  <threadedComment ref="E9" dT="2024-04-19T03:25:55.28" personId="{F923546A-F332-42C0-9D38-81AACCB66449}" id="{3AC3AE68-EECC-47F9-A996-B12A3C3E7789}">
+    <text xml:space="preserve">H3  Los usuarios pueden sentirse abrumados por la información adicional y perder el control sobre su navegación. 
+H7 La información innecesaria puede ralentizar a los usuarios y dificultarles encontrar lo que buscan. </text>
+  </threadedComment>
+  <threadedComment ref="E11" dT="2024-04-19T03:31:04.46" personId="{F923546A-F332-42C0-9D38-81AACCB66449}" id="{962FACF0-2F72-4FF2-B909-25D760BE8EF0}">
+    <text xml:space="preserve">H2 Los usuarios esperan encontrar textos escritos correctamente, ya que esto es fundamental para la comprensión y la fluidez de la lectura.
+H7 Los errores ortográficos obligan al usuario a invertir tiempo y esfuerzo en descifrar el significado del texto, lo que reduce su eficiencia y productividad.
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="right" visibility="0" width="350" row="1">
@@ -2953,440 +3178,413 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:I11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="39" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.7109375" style="85" customWidth="1"/>
-    <col min="3" max="4" width="50.7109375" style="80" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" style="82" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="66" customWidth="1"/>
+    <col min="3" max="4" width="50.7109375" style="61" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" style="63" customWidth="1"/>
     <col min="6" max="9" width="50.7109375" customWidth="1"/>
     <col min="10" max="10" width="50" customWidth="1"/>
+    <col min="11" max="11" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="86" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-    </row>
-    <row r="3" spans="2:9" s="93" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="88" t="s">
+      <c r="B2" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+    </row>
+    <row r="3" spans="2:9" s="69" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="B3" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="88" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="89" t="s">
+      <c r="D3" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="92"/>
+      <c r="F3" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="84"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="84"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="81"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="2:9" ht="300" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="100" t="s">
+      <c r="C5" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="94" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="55" t="e" vm="1">
+      <c r="F5" s="79" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="81"/>
     </row>
     <row r="6" spans="2:9" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="95"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="95"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="71"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="2:9" ht="300" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="100" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="100" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="94" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="55" t="e" vm="2">
+      <c r="C7" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="79" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="81"/>
     </row>
     <row r="8" spans="2:9" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="96"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="96"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="72"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="2:9" ht="300" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="94" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="100" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="100" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="94" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="55" t="e" vm="3">
+      <c r="B9" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="79" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="57"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="81"/>
     </row>
     <row r="10" spans="2:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="97"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="97"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="73"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="2:9" ht="300" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="103" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G11" s="11" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H11" s="11" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I11" s="12" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="75"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="2:9" ht="300" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="100" t="s">
+      <c r="F13" s="79" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="81"/>
+    </row>
+    <row r="14" spans="2:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="71"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="2:9" ht="300" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="100" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="101"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="105"/>
-    </row>
-    <row r="12" spans="2:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="97"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-    </row>
-    <row r="13" spans="2:9" ht="300" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="98" t="s">
+      <c r="E15" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="100" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="100" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="98"/>
-      <c r="F13" s="4" t="e" vm="4">
+      <c r="F15" s="79" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
-      <c r="G13" s="4" t="e" vm="5">
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="81"/>
+    </row>
+    <row r="16" spans="2:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="71"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="2:9" ht="300" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="79" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-      <c r="H13" s="11" t="e" vm="6">
+      <c r="G17" s="80" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
-      <c r="I13" s="12" t="e" vm="7">
+      <c r="H17" s="80" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="97"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="2:9" ht="300" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="98" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="100" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="100" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="98"/>
-      <c r="F15" s="4" t="e" vm="8">
+      <c r="I17" s="81" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
-      <c r="G15" s="4" t="e" vm="9">
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="65"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="2:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:9" ht="300" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="101"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="4" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
-      <c r="H15" s="11" t="e" vm="10">
+      <c r="G20" s="4" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
-      <c r="I15" s="12" t="e" vm="11">
+      <c r="H20" s="11" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="97"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="2:9" ht="300" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="98" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="100" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="100" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="98"/>
-      <c r="F17" s="4" t="e" vm="12">
+      <c r="I20" s="12" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
-      <c r="G17" s="4" t="e" vm="13">
+    </row>
+    <row r="21" spans="2:9" ht="300" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="101"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="4" t="e" vm="15">
         <v>#VALUE!</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="2:9" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="99"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="2:9" ht="300" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="94" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="100" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="100" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="94" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="55" t="e" vm="14">
+      <c r="G21" s="4" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="57"/>
-    </row>
-    <row r="20" spans="2:9" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="95"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="2:9" ht="300" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="100" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="100" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="94" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="55" t="e" vm="15">
+      <c r="H21" s="11" t="e" vm="17">
         <v>#VALUE!</v>
       </c>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="57"/>
-    </row>
-    <row r="22" spans="2:9" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="95"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="2:9" ht="300" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="100" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="100" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="55" t="e" vm="16">
+      <c r="I21" s="12" t="e" vm="18">
         <v>#VALUE!</v>
       </c>
-      <c r="G23" s="56" t="e" vm="17">
+    </row>
+    <row r="22" spans="2:9" ht="300" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="101"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="4" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
-      <c r="H23" s="56" t="e" vm="18">
+      <c r="G22" s="4" t="e" vm="20">
         <v>#VALUE!</v>
       </c>
-      <c r="I23" s="57" t="e" vm="19">
+      <c r="H22" s="11" t="e" vm="21">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="84"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="2:9" ht="39.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:9" ht="300" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="98"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="4" t="e" vm="20">
+      <c r="I22" s="12" t="e" vm="22">
         <v>#VALUE!</v>
       </c>
-      <c r="G26" s="4" t="e" vm="21">
+    </row>
+    <row r="23" spans="2:9" ht="300" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="101"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="4" t="e" vm="23">
         <v>#VALUE!</v>
       </c>
-      <c r="H26" s="11" t="e" vm="22">
+      <c r="G23" s="4" t="e" vm="24">
         <v>#VALUE!</v>
       </c>
-      <c r="I26" s="12" t="e" vm="23">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="14"/>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="14"/>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="14"/>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C45" s="79"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="14"/>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C54" s="79"/>
-      <c r="D54" s="79"/>
-      <c r="E54" s="14"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="14"/>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="14"/>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="14"/>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B2:I2"/>
-    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F17:I17"/>
     <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F15:I15"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="F7:I7"/>
   </mergeCells>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11" xr:uid="{6FDA5444-F409-4684-9823-E9257A73A662}">
+      <formula1>$F$20:$F$23</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11" xr:uid="{1A021FDA-6870-4A2B-90AA-8A96770A26E5}">
+      <formula1>$G$20:$G$23</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11" xr:uid="{724767E0-D905-43A9-ADEF-044A9760D5B2}">
+      <formula1>$H$20:$H$22</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11" xr:uid="{8FA298CD-FFB3-449D-B1BD-2C3741868150}">
+      <formula1>$I$20:$I$22</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:I54"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:I5"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -3398,16 +3596,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
+      <c r="B2" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
     </row>
     <row r="3" spans="2:9" ht="22.5" x14ac:dyDescent="0.35">
       <c r="B3" s="16" t="s">
@@ -3417,17 +3615,17 @@
         <v>1</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="63"/>
+      <c r="F3" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="92"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
@@ -3444,20 +3642,20 @@
         <v>3</v>
       </c>
       <c r="C5" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="55" t="e" vm="1">
+      <c r="F5" s="79" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="81"/>
     </row>
     <row r="6" spans="2:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B6" s="29"/>
@@ -3474,20 +3672,20 @@
         <v>4</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="58" t="e" vm="2">
+        <v>44</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="85" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="60"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="87"/>
     </row>
     <row r="8" spans="2:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B8" s="31"/>
@@ -3501,23 +3699,23 @@
     </row>
     <row r="9" spans="2:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="55" t="e" vm="3">
+        <v>58</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="79" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="57"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="81"/>
     </row>
     <row r="10" spans="2:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="33"/>
@@ -3531,25 +3729,27 @@
     </row>
     <row r="11" spans="2:9" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="4" t="e" vm="20">
+        <v>55</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="4" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
-      <c r="G11" s="4" t="e" vm="21">
+      <c r="G11" s="4" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
-      <c r="H11" s="11" t="e" vm="22">
+      <c r="H11" s="11" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-      <c r="I11" s="12" t="e" vm="23">
+      <c r="I11" s="12" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3565,25 +3765,25 @@
     </row>
     <row r="13" spans="2:9" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E13" s="26"/>
-      <c r="F13" s="4" t="e" vm="4">
+      <c r="F13" s="4" t="e" vm="15">
         <v>#VALUE!</v>
       </c>
-      <c r="G13" s="4" t="e" vm="5">
+      <c r="G13" s="4" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
-      <c r="H13" s="11" t="e" vm="6">
+      <c r="H13" s="11" t="e" vm="17">
         <v>#VALUE!</v>
       </c>
-      <c r="I13" s="12" t="e" vm="7">
+      <c r="I13" s="12" t="e" vm="18">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3599,25 +3799,25 @@
     </row>
     <row r="15" spans="2:9" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E15" s="26"/>
-      <c r="F15" s="4" t="e" vm="8">
+      <c r="F15" s="4" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
-      <c r="G15" s="4" t="e" vm="9">
+      <c r="G15" s="4" t="e" vm="20">
         <v>#VALUE!</v>
       </c>
-      <c r="H15" s="11" t="e" vm="10">
+      <c r="H15" s="11" t="e" vm="21">
         <v>#VALUE!</v>
       </c>
-      <c r="I15" s="12" t="e" vm="11">
+      <c r="I15" s="12" t="e" vm="22">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3633,19 +3833,19 @@
     </row>
     <row r="17" spans="2:9" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E17" s="26"/>
-      <c r="F17" s="4" t="e" vm="12">
+      <c r="F17" s="4" t="e" vm="23">
         <v>#VALUE!</v>
       </c>
-      <c r="G17" s="4" t="e" vm="13">
+      <c r="G17" s="4" t="e" vm="24">
         <v>#VALUE!</v>
       </c>
       <c r="H17" s="11"/>
@@ -3663,23 +3863,23 @@
     </row>
     <row r="19" spans="2:9" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="55" t="e" vm="14">
+        <v>47</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="79" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="57"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="81"/>
     </row>
     <row r="20" spans="2:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B20" s="29"/>
@@ -3693,23 +3893,23 @@
     </row>
     <row r="21" spans="2:9" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>53</v>
-      </c>
       <c r="D21" s="36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="58" t="e" vm="15">
+        <v>7</v>
+      </c>
+      <c r="F21" s="85" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="60"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="87"/>
     </row>
     <row r="22" spans="2:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B22" s="29"/>
@@ -3723,27 +3923,27 @@
     </row>
     <row r="23" spans="2:9" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="7" t="e" vm="16">
+        <v>57</v>
+      </c>
+      <c r="F23" s="7" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-      <c r="G23" s="7" t="e" vm="17">
+      <c r="G23" s="7" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
-      <c r="H23" s="7" t="e" vm="18">
+      <c r="H23" s="7" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
-      <c r="I23" s="7" t="e" vm="19">
+      <c r="I23" s="7" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3794,6 +3994,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3815,222 +4016,222 @@
     <row r="1" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:47" s="37" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70" t="s">
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70" t="s">
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70" t="s">
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97" t="s">
+        <v>62</v>
+      </c>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70" t="s">
-        <v>65</v>
-      </c>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70" t="s">
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70" t="s">
+      <c r="Y2" s="97"/>
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="70" t="s">
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="AB2" s="70"/>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="70" t="s">
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="97"/>
+      <c r="AG2" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="70" t="s">
+      <c r="AH2" s="97"/>
+      <c r="AI2" s="97"/>
+      <c r="AJ2" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="AH2" s="70"/>
-      <c r="AI2" s="70"/>
-      <c r="AJ2" s="70" t="s">
+      <c r="AK2" s="97"/>
+      <c r="AL2" s="97"/>
+      <c r="AM2" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="AK2" s="70"/>
-      <c r="AL2" s="70"/>
-      <c r="AM2" s="70" t="s">
+      <c r="AN2" s="97"/>
+      <c r="AO2" s="97"/>
+      <c r="AP2" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="AN2" s="70"/>
-      <c r="AO2" s="70"/>
-      <c r="AP2" s="70" t="s">
+      <c r="AQ2" s="97"/>
+      <c r="AR2" s="97"/>
+      <c r="AS2" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="AQ2" s="70"/>
-      <c r="AR2" s="70"/>
-      <c r="AS2" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT2" s="70"/>
-      <c r="AU2" s="73"/>
+      <c r="AT2" s="97"/>
+      <c r="AU2" s="100"/>
     </row>
     <row r="3" spans="1:47" s="37" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="45" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C3" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="E3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="47" t="s">
-        <v>23</v>
-      </c>
       <c r="F3" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="47" t="s">
-        <v>23</v>
-      </c>
       <c r="I3" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="K3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="47" t="s">
-        <v>23</v>
-      </c>
       <c r="L3" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="47" t="s">
+      <c r="N3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="47" t="s">
-        <v>23</v>
-      </c>
       <c r="O3" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="47" t="s">
+      <c r="Q3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="47" t="s">
-        <v>23</v>
-      </c>
       <c r="R3" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="47" t="s">
+      <c r="T3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="47" t="s">
-        <v>23</v>
-      </c>
       <c r="U3" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="47" t="s">
+      <c r="W3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="47" t="s">
-        <v>23</v>
-      </c>
       <c r="X3" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="47" t="s">
+      <c r="Z3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="Z3" s="47" t="s">
-        <v>23</v>
-      </c>
       <c r="AA3" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="AB3" s="47" t="s">
+      <c r="AC3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="AC3" s="47" t="s">
-        <v>23</v>
-      </c>
       <c r="AD3" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="AE3" s="47" t="s">
+      <c r="AF3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="AF3" s="47" t="s">
-        <v>23</v>
-      </c>
       <c r="AG3" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="AH3" s="47" t="s">
+      <c r="AI3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="AI3" s="47" t="s">
-        <v>23</v>
-      </c>
       <c r="AJ3" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="AK3" s="47" t="s">
+      <c r="AL3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="AL3" s="47" t="s">
-        <v>23</v>
-      </c>
       <c r="AM3" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="AN3" s="47" t="s">
+      <c r="AO3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="AO3" s="47" t="s">
-        <v>23</v>
-      </c>
       <c r="AP3" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="AQ3" s="47" t="s">
+      <c r="AR3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="AR3" s="47" t="s">
-        <v>23</v>
-      </c>
       <c r="AS3" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="AT3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="AT3" s="47" t="s">
+      <c r="AU3" s="48" t="s">
         <v>22</v>
-      </c>
-      <c r="AU3" s="48" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4038,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="43"/>
       <c r="D4" s="38"/>
@@ -4136,7 +4337,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="38"/>
@@ -4234,7 +4435,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="38"/>
@@ -4332,7 +4533,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="43"/>
       <c r="D7" s="38"/>
@@ -4430,7 +4631,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="44"/>
       <c r="D8" s="40"/>
@@ -4528,160 +4729,160 @@
       <c r="B10" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="72"/>
+      <c r="C10" s="98" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="99"/>
     </row>
     <row r="11" spans="1:47" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B11" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="66">
+      <c r="C11" s="93">
         <f>_xlfn.STDEV.S(E4:E8)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="67"/>
+      <c r="D11" s="94"/>
     </row>
     <row r="12" spans="1:47" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B12" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="66">
+      <c r="C12" s="93">
         <f>_xlfn.STDEV.S(H4:H8)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="67"/>
+      <c r="D12" s="94"/>
     </row>
     <row r="13" spans="1:47" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B13" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="66">
+        <v>5</v>
+      </c>
+      <c r="C13" s="93">
         <f>_xlfn.STDEV.S(K4:K8)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="67"/>
+      <c r="D13" s="94"/>
     </row>
     <row r="14" spans="1:47" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B14" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="66">
+        <v>6</v>
+      </c>
+      <c r="C14" s="93">
         <f>_xlfn.STDEV.S(N4:N8)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="67"/>
+      <c r="D14" s="94"/>
     </row>
     <row r="15" spans="1:47" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B15" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="66">
+        <v>10</v>
+      </c>
+      <c r="C15" s="93">
         <f>_xlfn.STDEV.S(Q4:Q8)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="67"/>
+      <c r="D15" s="94"/>
     </row>
     <row r="16" spans="1:47" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B16" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="66">
+        <v>49</v>
+      </c>
+      <c r="C16" s="93">
         <f>_xlfn.STDEV.S(T4:T8)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="67"/>
+      <c r="D16" s="94"/>
     </row>
     <row r="17" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B17" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="66">
+        <v>36</v>
+      </c>
+      <c r="C17" s="93">
         <f>_xlfn.STDEV.S(W4:W8)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="67"/>
+      <c r="D17" s="94"/>
     </row>
     <row r="18" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B18" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="66">
+        <v>8</v>
+      </c>
+      <c r="C18" s="93">
         <f>_xlfn.STDEV.S(Z4:Z8)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="67"/>
+      <c r="D18" s="94"/>
     </row>
     <row r="19" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B19" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="66">
+        <v>9</v>
+      </c>
+      <c r="C19" s="93">
         <f>_xlfn.STDEV.S(AC4:AC8)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="67"/>
+      <c r="D19" s="94"/>
     </row>
     <row r="20" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B20" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="66">
+        <v>37</v>
+      </c>
+      <c r="C20" s="93">
         <f>_xlfn.STDEV.S(AF4:AF8)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="67"/>
+      <c r="D20" s="94"/>
     </row>
     <row r="21" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B21" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="66">
+        <v>11</v>
+      </c>
+      <c r="C21" s="93">
         <f>_xlfn.STDEV.S(AI4:AI8)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="67"/>
+      <c r="D21" s="94"/>
     </row>
     <row r="22" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B22" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="66">
+        <v>38</v>
+      </c>
+      <c r="C22" s="93">
         <f>_xlfn.STDEV.S(AL4:AL8)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="67"/>
+      <c r="D22" s="94"/>
     </row>
     <row r="23" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B23" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="66">
+        <v>12</v>
+      </c>
+      <c r="C23" s="93">
         <f>_xlfn.STDEV.S(AO4:AO8)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="67"/>
+      <c r="D23" s="94"/>
     </row>
     <row r="24" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B24" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="66">
+        <v>13</v>
+      </c>
+      <c r="C24" s="93">
         <f>_xlfn.STDEV.S(AR4:AR8)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="67"/>
+      <c r="D24" s="94"/>
     </row>
     <row r="25" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="68">
+        <v>39</v>
+      </c>
+      <c r="C25" s="95">
         <f>_xlfn.STDEV.S(AU4:AU8)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="69"/>
+      <c r="D25" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="31">
